--- a/data/output/Pedido_Semana_06_13022026_deco_interior.xlsx
+++ b/data/output/Pedido_Semana_06_13022026_deco_interior.xlsx
@@ -986,7 +986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>6302020007</t>
@@ -1045,10 +1045,10 @@
       </c>
       <c r="O7" s="7" t="inlineStr"/>
       <c r="P7" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
       </c>
       <c r="O10" s="7" t="inlineStr"/>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>6401070023</t>
@@ -1353,10 +1353,10 @@
       </c>
       <c r="O11" s="7" t="inlineStr"/>
       <c r="P11" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>6401090104</t>
@@ -1507,10 +1507,10 @@
       </c>
       <c r="O13" s="7" t="inlineStr"/>
       <c r="P13" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" hidden="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>6302020025</t>
@@ -1577,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>27.15</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>16.29</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="inlineStr">
         <is>
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="P14" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>96.52</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>57.91</v>
+        <v>38.61</v>
       </c>
       <c r="O15" s="7" t="inlineStr">
         <is>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="P15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" hidden="1">
@@ -1930,7 +1930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>6302020068</t>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="inlineStr">
         <is>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="P19" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>6302020082</t>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2173,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>6302020141</t>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">21CM     </t>
+          <t xml:space="preserve">12CM     </t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -2200,22 +2200,22 @@
         </is>
       </c>
       <c r="F22" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>10.05</v>
+        <v>3.35</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>4.02</v>
+        <v>1.34</v>
       </c>
       <c r="I22" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>REDUCIR 19%</t>
         </is>
       </c>
       <c r="K22" s="3" t="n">
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>20.1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>12.06</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="inlineStr">
         <is>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="P22" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" hidden="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>6302020141</t>
@@ -2306,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="inlineStr">
         <is>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="P23" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" hidden="1">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">12CM     </t>
+          <t xml:space="preserve">21CM     </t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -2362,22 +2362,22 @@
         </is>
       </c>
       <c r="F24" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>3.35</v>
+        <v>10.05</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>1.34</v>
+        <v>4.02</v>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K24" s="3" t="n">
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="P24" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="3" t="n">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="8" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>6302140014</t>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">15CM     </t>
+          <t xml:space="preserve">11CM     </t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2527,19 +2527,19 @@
         <v>2</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>1.07</v>
+        <v>0.6</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>REDUCIR 25%</t>
         </is>
       </c>
       <c r="K26" s="3" t="n">
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="inlineStr">
         <is>
@@ -2560,25 +2560,25 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>6302140014</t>
@@ -2627,13 +2627,13 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="inlineStr">
         <is>
@@ -2641,10 +2641,10 @@
         </is>
       </c>
       <c r="P27" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" hidden="1">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11CM     </t>
+          <t xml:space="preserve">15CM     </t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -2689,217 +2689,217 @@
         <v>2</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>0.6</v>
+        <v>1.07</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 15%</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
+        </is>
+      </c>
+      <c r="P28" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" hidden="1">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>6302140020</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>PLATO REDONDO TRANSPARENTE</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9I5CM    </t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 25%</t>
-        </is>
-      </c>
-      <c r="K28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="inlineStr">
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 40%</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
         </is>
       </c>
-      <c r="P28" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T28" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U28" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="P29" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U29" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" hidden="1">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>6302140020</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>PLATO REDONDO TRANSPARENTE</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">18CM     </t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="n">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G30" s="4" t="n">
         <v>0.68</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H30" s="4" t="n">
         <v>0.27</v>
       </c>
-      <c r="I29" s="5" t="inlineStr">
+      <c r="I30" s="5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>REDUCIR 15%</t>
         </is>
       </c>
-      <c r="K29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="N29" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O29" s="7" t="inlineStr">
+      <c r="K30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
         </is>
       </c>
-      <c r="P29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="n">
+      <c r="P30" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="R29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="T29" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="U29" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>6302140020</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>PLATO REDONDO TRANSPARENTE</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9I5CM    </t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H30" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 40%</t>
-        </is>
-      </c>
-      <c r="K30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N30" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="O30" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
-        </is>
-      </c>
-      <c r="P30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T30" s="3" t="n">
-        <v>2</v>
-      </c>
       <c r="U30" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2965,10 +2965,10 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -3226,7 +3226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>6302020209</t>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="inlineStr">
         <is>
@@ -3289,10 +3289,10 @@
         </is>
       </c>
       <c r="P35" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" hidden="1">
@@ -3683,10 +3683,10 @@
         <v>0</v>
       </c>
       <c r="M40" s="6" t="n">
-        <v>27.8</v>
+        <v>13.9</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>16.68</v>
+        <v>8.34</v>
       </c>
       <c r="O40" s="7" t="inlineStr">
         <is>
@@ -3694,10 +3694,10 @@
         </is>
       </c>
       <c r="P40" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="U40" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" hidden="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
           <t>6201070028</t>
@@ -3764,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="M41" s="6" t="n">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>16.68</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="inlineStr">
         <is>
@@ -3775,10 +3775,10 @@
         </is>
       </c>
       <c r="P41" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="U41" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" hidden="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
           <t>6401070013</t>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="P42" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4007,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="6" t="n">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="O44" s="7" t="inlineStr">
         <is>
@@ -4018,10 +4018,10 @@
         </is>
       </c>
       <c r="P44" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -4247,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M47" s="6" t="n">
         <v>0.98</v>
@@ -4328,7 +4328,7 @@
         <v>2</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M48" s="6" t="n">
         <v>2.8</v>
@@ -4603,7 +4603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
           <t>6401090238</t>
@@ -4655,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="M52" s="6" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N52" s="4" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7" t="inlineStr">
         <is>
@@ -4666,10 +4666,10 @@
         </is>
       </c>
       <c r="P52" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4765,7 +4765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
           <t>6302080036</t>
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="M54" s="6" t="n">
-        <v>8.35</v>
+        <v>0</v>
       </c>
       <c r="N54" s="4" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
       <c r="O54" s="7" t="inlineStr">
         <is>
@@ -4828,10 +4828,10 @@
         </is>
       </c>
       <c r="P54" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5060,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="M57" s="6" t="n">
-        <v>58.8</v>
+        <v>39.2</v>
       </c>
       <c r="N57" s="4" t="n">
-        <v>35.28</v>
+        <v>23.52</v>
       </c>
       <c r="O57" s="7" t="inlineStr">
         <is>
@@ -5071,10 +5071,10 @@
         </is>
       </c>
       <c r="P57" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R57" s="2" t="n">
         <v>0</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -5251,7 +5251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
           <t>6201060042</t>
@@ -5303,10 +5303,10 @@
         <v>0</v>
       </c>
       <c r="M60" s="6" t="n">
-        <v>15.95</v>
+        <v>0</v>
       </c>
       <c r="N60" s="4" t="n">
-        <v>9.57</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="inlineStr">
         <is>
@@ -5314,10 +5314,10 @@
         </is>
       </c>
       <c r="P60" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" s="2" t="n">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5575,7 +5575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
           <t>6401180020</t>
@@ -5627,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="M64" s="6" t="n">
-        <v>6.65</v>
+        <v>0</v>
       </c>
       <c r="N64" s="4" t="n">
-        <v>3.99</v>
+        <v>0</v>
       </c>
       <c r="O64" s="7" t="inlineStr">
         <is>
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="P64" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" s="2" t="n">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -5870,10 +5870,10 @@
         <v>0</v>
       </c>
       <c r="M67" s="6" t="n">
-        <v>18.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>11.16</v>
+        <v>5.58</v>
       </c>
       <c r="O67" s="7" t="inlineStr">
         <is>
@@ -5881,10 +5881,10 @@
         </is>
       </c>
       <c r="P67" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R67" s="2" t="n">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -5993,222 +5993,222 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">12I3CM   </t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H69" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I69" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="N69" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="O69" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KAEMINGK                                                                                                                </t>
+        </is>
+      </c>
+      <c r="P69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" s="8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" hidden="1">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>6104080008</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>VELA TALLADA MECHA LED CREMA 7,5CM DIAMETRO</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">14I8CM   </t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F69" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="4" t="n">
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4" t="n">
         <v>4.88</v>
       </c>
-      <c r="H69" s="4" t="n">
+      <c r="H70" s="4" t="n">
         <v>1.95</v>
       </c>
-      <c r="I69" s="5" t="inlineStr">
+      <c r="I70" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
+      <c r="J70" s="2" t="inlineStr">
         <is>
           <t>AUMENTAR 19%</t>
         </is>
       </c>
-      <c r="K69" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="N69" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="O69" s="7" t="inlineStr">
+      <c r="K70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">KAEMINGK                                                                                                                </t>
         </is>
       </c>
-      <c r="P69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T69" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U69" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="P70" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U70" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" hidden="1">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>6104080008</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>VELA TALLADA MECHA LED CREMA 7,5CM DIAMETRO</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">17I3CM   </t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr">
+      <c r="D71" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F70" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="4" t="n">
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="n">
         <v>5.22</v>
       </c>
-      <c r="H70" s="4" t="n">
+      <c r="H71" s="4" t="n">
         <v>2.09</v>
       </c>
-      <c r="I70" s="5" t="inlineStr">
+      <c r="I71" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
+      <c r="J71" s="2" t="inlineStr">
         <is>
           <t>AUMENTAR 19%</t>
         </is>
       </c>
-      <c r="K70" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" s="6" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="N70" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="O70" s="7" t="inlineStr">
+      <c r="K71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">KAEMINGK                                                                                                                </t>
         </is>
       </c>
-      <c r="P70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U70" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>6104080008</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>VELA TALLADA MECHA LED CREMA 7,5CM DIAMETRO</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12I3CM   </t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H71" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I71" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 19%</t>
-        </is>
-      </c>
-      <c r="K71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L71" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" s="6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="N71" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KAEMINGK                                                                                                                </t>
-        </is>
-      </c>
       <c r="P71" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q71" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R71" s="2" t="n">
         <v>0</v>
@@ -6220,10 +6220,10 @@
         <v>0</v>
       </c>
       <c r="U71" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" hidden="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
           <t>6201030002</t>
@@ -6275,10 +6275,10 @@
         <v>0</v>
       </c>
       <c r="M72" s="6" t="n">
-        <v>78.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="N72" s="4" t="n">
-        <v>47.34</v>
+        <v>0</v>
       </c>
       <c r="O72" s="7" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="P72" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q72" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R72" s="2" t="n">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -6353,13 +6353,13 @@
         <v>2</v>
       </c>
       <c r="L73" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M73" s="6" t="n">
-        <v>54.6</v>
+        <v>45.5</v>
       </c>
       <c r="N73" s="4" t="n">
-        <v>32.76</v>
+        <v>27.3</v>
       </c>
       <c r="O73" s="7" t="inlineStr">
         <is>
@@ -6367,10 +6367,10 @@
         </is>
       </c>
       <c r="P73" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R73" s="2" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" hidden="1">
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
           <t>6402040046</t>
@@ -6518,10 +6518,10 @@
         <v>0</v>
       </c>
       <c r="M75" s="6" t="n">
-        <v>23.17</v>
+        <v>0</v>
       </c>
       <c r="N75" s="4" t="n">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="O75" s="7" t="inlineStr">
         <is>
@@ -6529,22 +6529,22 @@
         </is>
       </c>
       <c r="P75" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q75" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R75" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6628,7 +6628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
           <t>6201010039</t>
@@ -6680,10 +6680,10 @@
         <v>0</v>
       </c>
       <c r="M77" s="6" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="N77" s="4" t="n">
-        <v>7.56</v>
+        <v>0</v>
       </c>
       <c r="O77" s="7" t="inlineStr">
         <is>
@@ -6691,10 +6691,10 @@
         </is>
       </c>
       <c r="P77" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q77" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R77" s="2" t="n">
         <v>0</v>
@@ -6706,10 +6706,10 @@
         <v>0</v>
       </c>
       <c r="U77" s="8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" hidden="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
           <t>6201010080</t>
@@ -6772,10 +6772,10 @@
         </is>
       </c>
       <c r="P78" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q78" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R78" s="2" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -6871,7 +6871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
           <t>6201010094</t>
@@ -6934,10 +6934,10 @@
         </is>
       </c>
       <c r="P80" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q80" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R80" s="2" t="n">
         <v>0</v>
@@ -6949,10 +6949,10 @@
         <v>0</v>
       </c>
       <c r="U80" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" hidden="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
           <t>6201010115</t>
@@ -7001,13 +7001,13 @@
         <v>2</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M81" s="6" t="n">
-        <v>76.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="N81" s="4" t="n">
-        <v>45.84</v>
+        <v>0</v>
       </c>
       <c r="O81" s="7" t="inlineStr">
         <is>
@@ -7015,10 +7015,10 @@
         </is>
       </c>
       <c r="P81" s="3" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q81" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R81" s="2" t="n">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="U81" s="8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -7166,10 +7166,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="6" t="n">
-        <v>39.75</v>
+        <v>26.5</v>
       </c>
       <c r="N83" s="4" t="n">
-        <v>23.85</v>
+        <v>15.9</v>
       </c>
       <c r="O83" s="7" t="inlineStr">
         <is>
@@ -7177,10 +7177,10 @@
         </is>
       </c>
       <c r="P83" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R83" s="2" t="n">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -7276,7 +7276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="1">
       <c r="A85" s="2" t="inlineStr">
         <is>
           <t>6201100004</t>
@@ -7325,13 +7325,13 @@
         <v>1</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M85" s="6" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N85" s="4" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="O85" s="7" t="inlineStr">
         <is>
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="P85" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q85" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R85" s="2" t="n">
         <v>0</v>
@@ -7354,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="U85" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" hidden="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
           <t>6201100008</t>
@@ -7409,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="M86" s="6" t="n">
-        <v>21.3</v>
+        <v>0</v>
       </c>
       <c r="N86" s="4" t="n">
-        <v>12.78</v>
+        <v>0</v>
       </c>
       <c r="O86" s="7" t="inlineStr">
         <is>
@@ -7420,10 +7420,10 @@
         </is>
       </c>
       <c r="P86" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q86" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R86" s="2" t="n">
         <v>0</v>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="U86" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" hidden="1">
@@ -7681,7 +7681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
           <t>6201100023</t>
@@ -7733,10 +7733,10 @@
         <v>0</v>
       </c>
       <c r="M90" s="6" t="n">
-        <v>59.7</v>
+        <v>0</v>
       </c>
       <c r="N90" s="4" t="n">
-        <v>35.82</v>
+        <v>0</v>
       </c>
       <c r="O90" s="7" t="inlineStr">
         <is>
@@ -7744,10 +7744,10 @@
         </is>
       </c>
       <c r="P90" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q90" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R90" s="2" t="n">
         <v>0</v>
@@ -7759,10 +7759,10 @@
         <v>0</v>
       </c>
       <c r="U90" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" hidden="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
           <t>6203010030</t>
@@ -7814,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="M91" s="6" t="n">
-        <v>4.65</v>
+        <v>0</v>
       </c>
       <c r="N91" s="4" t="n">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="O91" s="7" t="inlineStr">
         <is>
@@ -7825,80 +7825,80 @@
         </is>
       </c>
       <c r="P91" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" hidden="1">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>6203010032</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>PINCHO ESPANTAPAJAROS SURTIDO</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30CM     </t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G92" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H92" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I92" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>MANTENER</t>
+        </is>
+      </c>
+      <c r="K92" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="R91" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S91" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U91" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>6203010032</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>PINCHO ESPANTAPAJAROS SURTIDO</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">45CM     </t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F92" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G92" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H92" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I92" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 15%</t>
-        </is>
-      </c>
-      <c r="K92" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="L92" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" s="6" t="n">
-        <v>6.38</v>
+        <v>0</v>
       </c>
       <c r="N92" s="4" t="n">
-        <v>3.83</v>
+        <v>0</v>
       </c>
       <c r="O92" s="7" t="inlineStr">
         <is>
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="P92" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q92" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R92" s="2" t="n">
         <v>0</v>
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" hidden="1">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">30CM     </t>
+          <t xml:space="preserve">45CM     </t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
@@ -7951,29 +7951,29 @@
         </is>
       </c>
       <c r="F93" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>1.38</v>
+        <v>2.12</v>
       </c>
       <c r="H93" s="4" t="n">
-        <v>0.55</v>
+        <v>0.85</v>
       </c>
       <c r="I93" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K93" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L93" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" s="6" t="n">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="P93" s="3" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="Q93" s="3" t="n">
         <v>0</v>
@@ -8381,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="M98" s="6" t="n">
-        <v>72.75</v>
+        <v>48.5</v>
       </c>
       <c r="N98" s="4" t="n">
-        <v>43.65</v>
+        <v>29.1</v>
       </c>
       <c r="O98" s="7" t="inlineStr">
         <is>
@@ -8392,10 +8392,10 @@
         </is>
       </c>
       <c r="P98" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R98" s="2" t="n">
         <v>0</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="U98" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -8462,10 +8462,10 @@
         <v>0</v>
       </c>
       <c r="M99" s="6" t="n">
-        <v>13.6</v>
+        <v>6.8</v>
       </c>
       <c r="N99" s="4" t="n">
-        <v>8.16</v>
+        <v>4.08</v>
       </c>
       <c r="O99" s="7" t="inlineStr">
         <is>
@@ -8473,10 +8473,10 @@
         </is>
       </c>
       <c r="P99" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R99" s="2" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="U99" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -8543,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="M100" s="6" t="n">
-        <v>73.90000000000001</v>
+        <v>18.47</v>
       </c>
       <c r="N100" s="4" t="n">
-        <v>44.34</v>
+        <v>11.08</v>
       </c>
       <c r="O100" s="7" t="inlineStr">
         <is>
@@ -8554,10 +8554,10 @@
         </is>
       </c>
       <c r="P100" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q100" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R100" s="2" t="n">
         <v>0</v>
@@ -8569,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="U100" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" hidden="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
           <t>6401090155</t>
@@ -8624,10 +8624,10 @@
         <v>0</v>
       </c>
       <c r="M101" s="6" t="n">
-        <v>110.85</v>
+        <v>0</v>
       </c>
       <c r="N101" s="4" t="n">
-        <v>66.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="O101" s="7" t="inlineStr">
         <is>
@@ -8635,10 +8635,10 @@
         </is>
       </c>
       <c r="P101" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q101" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R101" s="2" t="n">
         <v>0</v>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="U101" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -8734,7 +8734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
           <t>6401090010</t>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="M103" s="6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N103" s="4" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O103" s="7" t="inlineStr">
         <is>
@@ -8797,25 +8797,25 @@
         </is>
       </c>
       <c r="P103" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q103" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R103" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S103" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T103" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U103" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" hidden="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
           <t>6401090011</t>
@@ -8867,10 +8867,10 @@
         <v>0</v>
       </c>
       <c r="M104" s="6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N104" s="4" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O104" s="7" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="P104" s="3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q104" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R104" s="2" t="n">
         <v>0</v>
@@ -8893,10 +8893,10 @@
         <v>0</v>
       </c>
       <c r="U104" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" hidden="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
           <t>6401090053</t>
@@ -8948,10 +8948,10 @@
         <v>0</v>
       </c>
       <c r="M105" s="6" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="N105" s="4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="O105" s="7" t="inlineStr">
         <is>
@@ -8959,10 +8959,10 @@
         </is>
       </c>
       <c r="P105" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q105" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R105" s="2" t="n">
         <v>0</v>
@@ -8974,10 +8974,10 @@
         <v>0</v>
       </c>
       <c r="U105" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" hidden="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
           <t>6401090066</t>
@@ -9029,10 +9029,10 @@
         <v>0</v>
       </c>
       <c r="M106" s="6" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="N106" s="4" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="O106" s="7" t="inlineStr">
         <is>
@@ -9040,10 +9040,10 @@
         </is>
       </c>
       <c r="P106" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q106" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R106" s="2" t="n">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="L107" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" s="6" t="n">
         <v>0</v>
@@ -9139,7 +9139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
           <t>6401090199</t>
@@ -9191,10 +9191,10 @@
         <v>0</v>
       </c>
       <c r="M108" s="6" t="n">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="N108" s="4" t="n">
-        <v>6.45</v>
+        <v>0</v>
       </c>
       <c r="O108" s="7" t="inlineStr">
         <is>
@@ -9202,10 +9202,10 @@
         </is>
       </c>
       <c r="P108" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q108" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R108" s="2" t="n">
         <v>0</v>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="U108" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -9272,10 +9272,10 @@
         <v>0</v>
       </c>
       <c r="M109" s="6" t="n">
-        <v>29.78</v>
+        <v>39.7</v>
       </c>
       <c r="N109" s="4" t="n">
-        <v>17.87</v>
+        <v>23.82</v>
       </c>
       <c r="O109" s="7" t="inlineStr">
         <is>
@@ -9292,13 +9292,13 @@
         <v>0</v>
       </c>
       <c r="S109" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T109" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U109" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -9625,7 +9625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
           <t>6401040035</t>
@@ -9677,10 +9677,10 @@
         <v>0</v>
       </c>
       <c r="M114" s="6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N114" s="4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="O114" s="7" t="inlineStr">
         <is>
@@ -9688,10 +9688,10 @@
         </is>
       </c>
       <c r="P114" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q114" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R114" s="2" t="n">
         <v>0</v>
@@ -9703,10 +9703,10 @@
         <v>0</v>
       </c>
       <c r="U114" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" hidden="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
           <t>6401040044</t>
@@ -9758,10 +9758,10 @@
         <v>0</v>
       </c>
       <c r="M115" s="6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N115" s="4" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O115" s="7" t="inlineStr">
         <is>
@@ -9769,10 +9769,10 @@
         </is>
       </c>
       <c r="P115" s="3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q115" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R115" s="2" t="n">
         <v>0</v>
@@ -9784,10 +9784,10 @@
         <v>0</v>
       </c>
       <c r="U115" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" hidden="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
           <t>6401040050</t>
@@ -9839,10 +9839,10 @@
         <v>0</v>
       </c>
       <c r="M116" s="6" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="N116" s="4" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="O116" s="7" t="inlineStr">
         <is>
@@ -9850,25 +9850,25 @@
         </is>
       </c>
       <c r="P116" s="3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q116" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R116" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S116" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U116" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" hidden="1">
       <c r="A117" s="2" t="inlineStr">
         <is>
           <t>6401040052</t>
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="M117" s="6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N117" s="4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="O117" s="7" t="inlineStr">
         <is>
@@ -9931,10 +9931,10 @@
         </is>
       </c>
       <c r="P117" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q117" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R117" s="2" t="n">
         <v>0</v>
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="U117" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -10001,10 +10001,10 @@
         <v>0</v>
       </c>
       <c r="M118" s="6" t="n">
-        <v>18.75</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="N118" s="4" t="n">
-        <v>11.25</v>
+        <v>5.63</v>
       </c>
       <c r="O118" s="7" t="inlineStr">
         <is>
@@ -10012,10 +10012,10 @@
         </is>
       </c>
       <c r="P118" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R118" s="2" t="n">
         <v>0</v>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119"/>
@@ -10045,7 +10045,7 @@
         </is>
       </c>
       <c r="C121" s="5" t="n">
-        <v>303</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="C123" s="5" t="inlineStr">
         <is>
-          <t>2385.99€</t>
+          <t>1462.64€</t>
         </is>
       </c>
     </row>
@@ -10165,7 +10165,7 @@
         </is>
       </c>
       <c r="C132" s="5" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_06_13022026_deco_interior.xlsx
+++ b/data/output/Pedido_Semana_06_13022026_deco_interior.xlsx
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" hidden="1">
+    <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
           <t>6201100009</t>
@@ -7451,141 +7451,141 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">100CM    </t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 19%</t>
+        </is>
+      </c>
+      <c r="K87" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIDEXGROUP SL                                                                                                           </t>
+        </is>
+      </c>
+      <c r="P87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" s="8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" hidden="1">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>6201100009</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>COLGANTE YEDRA VERDE</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">46CM     </t>
         </is>
       </c>
-      <c r="D87" s="2" t="inlineStr">
+      <c r="D88" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
-      <c r="E87" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F87" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" s="5" t="inlineStr">
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" s="5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
+      <c r="J88" s="2" t="inlineStr">
         <is>
           <t>AUMENTAR 25%</t>
         </is>
       </c>
-      <c r="K87" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" s="7" t="inlineStr">
+      <c r="K88" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">LIDEXGROUP SL                                                                                                           </t>
         </is>
       </c>
-      <c r="P87" s="3" t="n">
+      <c r="P88" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="Q87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U87" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>6201100009</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>COLGANTE YEDRA VERDE</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100CM    </t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F88" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 19%</t>
-        </is>
-      </c>
-      <c r="K88" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LIDEXGROUP SL                                                                                                           </t>
-        </is>
-      </c>
-      <c r="P88" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q88" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R88" s="2" t="n">
         <v>0</v>
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="U88" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -8491,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
           <t>6401090088</t>
@@ -8518,7 +8518,7 @@
         </is>
       </c>
       <c r="F100" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100" s="4" t="n">
         <v>18.47</v>
@@ -8543,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="M100" s="6" t="n">
-        <v>18.47</v>
+        <v>0</v>
       </c>
       <c r="N100" s="4" t="n">
-        <v>11.08</v>
+        <v>0</v>
       </c>
       <c r="O100" s="7" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100" s="2" t="n">
         <v>0</v>
@@ -8569,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="U100" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
           <t>6401090155</t>
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="F101" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G101" s="4" t="n">
         <v>18.47</v>
@@ -8624,10 +8624,10 @@
         <v>0</v>
       </c>
       <c r="M101" s="6" t="n">
-        <v>0</v>
+        <v>18.47</v>
       </c>
       <c r="N101" s="4" t="n">
-        <v>0</v>
+        <v>11.08</v>
       </c>
       <c r="O101" s="7" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>6</v>
       </c>
       <c r="Q101" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" s="2" t="n">
         <v>0</v>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="U101" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
